--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -2051,291 +2051,1879 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>12312313</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="1" t="inlineStr">
         <is>
           <t>10061</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>2132131</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="1" t="inlineStr">
         <is>
           <t>10061</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>2132</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>2132132132</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>10061</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>213213213</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="1" t="inlineStr">
         <is>
           <t>10061</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>2321321</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="1" t="inlineStr">
         <is>
           <t>10063</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>12321</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>32131312321</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="1" t="inlineStr">
         <is>
           <t>10063</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>2133123</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="1" t="inlineStr">
         <is>
           <t>10063</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>312331</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>232131312331</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" s="1" t="inlineStr">
         <is>
           <t>10063</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr"/>
+      <c r="B69" s="1" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" s="1" t="inlineStr">
         <is>
           <t>10066</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr"/>
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="1" t="inlineStr">
         <is>
           <t>10066</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>33ada212</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
         <is>
           <t>07:07:00</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="1" t="inlineStr">
         <is>
           <t>10066</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>12312313</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>2132131</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>2132132132</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>213213213</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>2321321</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>32131312321</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>2133123</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>312331</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>232131312331</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr"/>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>10077</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>10077</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>33ada212</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>08:18:04</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>10077</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>12312313</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>2132131</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>2132132132</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>213213213</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>2321321</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>10085</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>32131312321</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>10085</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>2133123</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>10085</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>312331</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>232131312331</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>10085</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr"/>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>33ada212</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>10088</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>12312313</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>2132131</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>2132132132</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>213213213</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>2321321</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>10096</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>32131312321</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>10096</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>2133123</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>10096</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>312331</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>232131312331</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>10096</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr"/>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>33ada212</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>08:25:41</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>12312313</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>2132131</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>2132132132</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>213213213</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>2321321</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>10107</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>32131312321</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>10107</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>2133123</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>10107</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>312331</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>232131312331</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>10107</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr"/>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr"/>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>33ada212</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>08:25:58</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>10116</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
+        <is>
+          <t>10116</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
+        <is>
+          <t>10116</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>10116</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>10118</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
+        <is>
+          <t>10118</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>10121</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>08:32:08</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="inlineStr">
+        <is>
+          <t>10121</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>10124</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10124</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>10124</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10124</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>10129</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>08:34:06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>10129</t>
         </is>
       </c>
     </row>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -3712,218 +3712,758 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259750BE02</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E126" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259749BE02</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259750BE02</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D128" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" s="1" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259749BE02</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E129" s="1" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E130" s="1" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D131" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="1" t="inlineStr">
         <is>
           <t>10129</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D134" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E134" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>10134</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="inlineStr">
+        <is>
+          <t>10134</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>15:50:39</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>10142</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>10142</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>G4FMNU259753BE02</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>G4FMNU259758BE02</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>15:51:17</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>10149</t>
         </is>
       </c>
     </row>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -4144,326 +4144,569 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D140" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E140" s="1" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D141" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E141" s="1" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259750BE02</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D142" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" s="1" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259749BE02</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D143" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E143" s="1" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259750BE02</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
+      <c r="C144" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D144" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E144" s="1" t="inlineStr">
         <is>
           <t>10142</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259749BE02</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D145" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="1" t="inlineStr">
         <is>
           <t>10142</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D146" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="1" t="inlineStr">
         <is>
           <t>10145</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
+      <c r="C147" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D147" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" s="1" t="inlineStr">
         <is>
           <t>10145</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
+      <c r="C148" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D148" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="E148" s="1" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D149" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="1" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="1" t="inlineStr">
         <is>
           <t>259753</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259753BE02</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
+      <c r="C150" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D150" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E150" s="1" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="1" t="inlineStr">
         <is>
           <t>259758</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259758BE02</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
+      <c r="C151" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D151" s="1" t="inlineStr">
         <is>
           <t>15:51:17</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="1" t="inlineStr">
         <is>
           <t>10149</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D152" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E152" s="1" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D153" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E153" s="1" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D154" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E154" s="1" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D155" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E155" s="1" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D156" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E156" s="1" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D157" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E157" s="1" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D158" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E158" s="1" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D159" s="1" t="inlineStr">
+        <is>
+          <t>18:04:14</t>
+        </is>
+      </c>
+      <c r="E159" s="1" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>testatasdasdadada</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>18:04:33</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>10160</t>
         </is>
       </c>
     </row>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -4684,29 +4684,56 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="1" t="inlineStr">
         <is>
           <t>asdasd</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="1" t="inlineStr">
         <is>
           <t>testatasdasdadada</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D160" s="1" t="inlineStr">
         <is>
           <t>18:04:33</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E160" s="1" t="inlineStr">
         <is>
           <t>10160</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>testatasdasdadada</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>18:07:46</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>10161</t>
         </is>
       </c>
     </row>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -3712,216 +3712,216 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259750BE02</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E126" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259749BE02</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="1" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259750BE02</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D128" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" s="1" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259749BE02</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E129" s="1" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E130" s="1" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D131" s="1" t="inlineStr">
         <is>
           <t>08:34:06</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="1" t="inlineStr">
         <is>
           <t>10129</t>
         </is>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -4711,29 +4711,542 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="1" t="inlineStr">
         <is>
           <t>asdasd</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="1" t="inlineStr">
         <is>
           <t>testatasdasdadada</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="D161" s="1" t="inlineStr">
         <is>
           <t>18:07:46</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="E161" s="1" t="inlineStr">
         <is>
           <t>10161</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>20220801</t>
+        </is>
+      </c>
+      <c r="D162" s="1" t="inlineStr">
+        <is>
+          <t>20:13:58</t>
+        </is>
+      </c>
+      <c r="E162" s="1" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D163" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E163" s="1" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D164" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E164" s="1" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D165" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E165" s="1" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D166" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E166" s="1" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259753BE02</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D167" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E167" s="1" t="inlineStr">
+        <is>
+          <t>10165</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259754BE02</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D168" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E168" s="1" t="inlineStr">
+        <is>
+          <t>10165</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259755BE02</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D169" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E169" s="1" t="inlineStr">
+        <is>
+          <t>10165</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259757BE02</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D170" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E170" s="1" t="inlineStr">
+        <is>
+          <t>10168</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259758BE02</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D171" s="1" t="inlineStr">
+        <is>
+          <t>01:18:55</t>
+        </is>
+      </c>
+      <c r="E171" s="1" t="inlineStr">
+        <is>
+          <t>10168</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>10172</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>10172</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>10172</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>10172</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>G4FMNU259753BE02</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>10174</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>G4FMNU259754BE02</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>10174</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>G4FMNU259755BE02</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>10174</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>G4FMNU259757BE02</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>10177</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>G4FMNU259758BE02</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>20220802</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>03:52:45</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>10177</t>
         </is>
       </c>
     </row>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -5008,245 +5008,893 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="1" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259752BE02</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D172" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" s="1" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="1" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259751BE02</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D173" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E173" s="1" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="A174" s="1" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259750BE02</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D174" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E174" s="1" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="A175" s="1" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259749BE02</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D175" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="1" t="inlineStr">
         <is>
           <t>10172</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="1" t="inlineStr">
         <is>
           <t>259753</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259753BE02</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D176" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="1" t="inlineStr">
         <is>
           <t>10174</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="A177" s="1" t="inlineStr">
         <is>
           <t>259754</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259754BE02</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D177" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E177" s="1" t="inlineStr">
         <is>
           <t>10174</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="1" t="inlineStr">
         <is>
           <t>259755</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259755BE02</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D178" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E178" s="1" t="inlineStr">
         <is>
           <t>10174</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="1" t="inlineStr">
         <is>
           <t>259757</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259757BE02</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D179" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E179" s="1" t="inlineStr">
         <is>
           <t>10177</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="1" t="inlineStr">
         <is>
           <t>259758</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="1" t="inlineStr">
         <is>
           <t>G4FMNU259758BE02</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="1" t="inlineStr">
         <is>
           <t>20220802</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D180" s="1" t="inlineStr">
         <is>
           <t>03:52:45</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="1" t="inlineStr">
         <is>
           <t>10177</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>572915</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572915G42P</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D181" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E181" s="1" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>572914</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572914G42P</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D182" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E182" s="1" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>572913</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572913G42P</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D183" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E183" s="1" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>572912</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572912G42P</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D184" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E184" s="1" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>572911</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572911G42P</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D185" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E185" s="1" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>572910</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572910G42P</t>
+        </is>
+      </c>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D186" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E186" s="1" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>572909</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572909G42P</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D187" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E187" s="1" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>572908</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572908G42P</t>
+        </is>
+      </c>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D188" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E188" s="1" t="inlineStr">
+        <is>
+          <t>10183</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>572915</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572915G42P</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D189" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E189" s="1" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>572914</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572914G42P</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D190" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E190" s="1" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>572913</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572913G42P</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D191" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E191" s="1" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>572912</t>
+        </is>
+      </c>
+      <c r="B192" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572912G42P</t>
+        </is>
+      </c>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D192" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E192" s="1" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>572911</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572911G42P</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D193" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E193" s="1" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>572910</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572910G42P</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D194" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E194" s="1" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>572909</t>
+        </is>
+      </c>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572909G42P</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D195" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E195" s="1" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>572908</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>G4FDGH572908G42P</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D196" s="1" t="inlineStr">
+        <is>
+          <t>00:52:12</t>
+        </is>
+      </c>
+      <c r="E196" s="1" t="inlineStr">
+        <is>
+          <t>10190</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>572915</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>G4FDGH572915A22G</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>572914</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>G4FDGH572914A22G</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>572913</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>G4FDGH572913A22G</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>572912</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>G4FDGH572912A22G</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>10197</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>572911</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>G4FDGH572911A22G</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>572910</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>G4FDGH572910A22G</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>572909</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>G4FDGH572909A22G</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>10199</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>572908</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>G4FDGH572908A22G</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>20220804</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>01:18:37</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>10199</t>
         </is>
       </c>
     </row>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -5683,216 +5683,216 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="1" t="inlineStr">
         <is>
           <t>572915</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572915A22G</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D197" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="1" t="inlineStr">
         <is>
           <t>10197</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="1" t="inlineStr">
         <is>
           <t>572914</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572914A22G</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D198" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="1" t="inlineStr">
         <is>
           <t>10197</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="1" t="inlineStr">
         <is>
           <t>572913</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572913A22G</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D199" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="1" t="inlineStr">
         <is>
           <t>10197</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="1" t="inlineStr">
         <is>
           <t>572912</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572912A22G</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D200" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E200" s="1" t="inlineStr">
         <is>
           <t>10197</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="1" t="inlineStr">
         <is>
           <t>572911</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572911A22G</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D201" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E201" s="1" t="inlineStr">
         <is>
           <t>10199</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="A202" s="1" t="inlineStr">
         <is>
           <t>572910</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572910A22G</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D202" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E202" s="1" t="inlineStr">
         <is>
           <t>10199</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="A203" s="1" t="inlineStr">
         <is>
           <t>572909</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572909A22G</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D203" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E203" s="1" t="inlineStr">
         <is>
           <t>10199</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" s="1" t="inlineStr">
         <is>
           <t>572908</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="1" t="inlineStr">
         <is>
           <t>G4FDGH572908A22G</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="1" t="inlineStr">
         <is>
           <t>20220804</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D204" s="1" t="inlineStr">
         <is>
           <t>01:18:37</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="1" t="inlineStr">
         <is>
           <t>10199</t>
         </is>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -3927,6 +3927,438 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>20:32:25</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="inlineStr">
+        <is>
+          <t>20:32:25</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D134" s="1" t="inlineStr">
+        <is>
+          <t>20:32:25</t>
+        </is>
+      </c>
+      <c r="E134" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>20:32:25</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="inlineStr">
+        <is>
+          <t>20:32:36</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>20:32:36</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>20:32:36</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>20:32:36</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D140" s="1" t="inlineStr">
+        <is>
+          <t>20:34:41</t>
+        </is>
+      </c>
+      <c r="E140" s="1" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D141" s="1" t="inlineStr">
+        <is>
+          <t>20:34:41</t>
+        </is>
+      </c>
+      <c r="E141" s="1" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D142" s="1" t="inlineStr">
+        <is>
+          <t>20:34:41</t>
+        </is>
+      </c>
+      <c r="E142" s="1" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
+          <t>G4FMNU259749BE02</t>
+        </is>
+      </c>
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D143" s="1" t="inlineStr">
+        <is>
+          <t>20:34:41</t>
+        </is>
+      </c>
+      <c r="E143" s="1" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>G4FMNU259752BE02</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>20:34:44</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>G4FMNU259751BE02</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>20:34:44</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>G4FMNU259750BE02</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>20:34:44</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BBCCCC</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>AAAABBBBCCCCDDDD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>20220807</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>20:34:44</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="4294967293"/>

--- a/DB/barcode.xlsx
+++ b/DB/barcode.xlsx
@@ -1,57 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkhh\PycharmProjects\flaskProject\DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C19D82-27FD-4D84-9FFC-C6E7904BF6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6465" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="6045" yWindow="4020" windowWidth="21600" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rawBarcode" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rawBarcode" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>rawBarcodeString</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>groupid</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="기아 Medium"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,95 +95,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,134 +424,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="A10004" sqref="A2:XFD10004"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col width="22.75" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col min="1" max="1" width="22.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>rawBarcodeString</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>groupid</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>G4FMNU259752BE02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>030454</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10002</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>G4FMNU259751BE02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>030454</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10002</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>G4FMNU259750BE02</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>030454</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10002</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>G4FMNU259749BE02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20220809</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>030454</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10002</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>